--- a/FonotradeInvoiceControlTests/files/one_person_without_register_action.xlsx
+++ b/FonotradeInvoiceControlTests/files/one_person_without_register_action.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Lote</t>
   </si>
@@ -49,13 +49,16 @@
     <t xml:space="preserve">Ação</t>
   </si>
   <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID REGISTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID SERVIÇO</t>
+    <t xml:space="preserve">Resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTA FISCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° NF</t>
   </si>
   <si>
     <t xml:space="preserve">220405-1</t>
@@ -323,10 +326,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="20.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -383,25 +386,28 @@
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="12" t="str">
         <f aca="false">C2&amp;"-"&amp;A2&amp;"-"&amp;B2</f>
@@ -411,11 +417,12 @@
         <v>350.22</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
